--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_3_4.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_3_4.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1762191.284250449</v>
+        <v>-1764141.51007901</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -662,22 +662,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>26.97132286554847</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,10 +704,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>37.51618076749115</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>111.3774774043965</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -716,13 +716,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>97.04383433536896</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -862,25 +862,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>148.6353323464448</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>201.0891638436807</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,22 +896,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>92.50805733629672</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>162.7072230995416</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,10 +941,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1105,22 +1105,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>155.8860385675338</v>
+        <v>89.04055620987458</v>
       </c>
     </row>
     <row r="8">
@@ -1133,25 +1133,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>30.51821258765303</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>58.99344615795999</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,19 +1178,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1291,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>126.5467427872846</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1333,19 +1333,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>279.5106614771182</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1421,7 +1421,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>67.70256091632896</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>143.0671095775718</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1588,7 +1588,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560518</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1762,25 +1762,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>94.92901474497067</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -1810,25 +1810,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>79.57910444456549</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -2005,10 +2005,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>115.4565483291797</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2017,10 +2017,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,22 +2050,22 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>198.2799895932955</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2081,7 +2081,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,19 +2236,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>13.31645906835351</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2293,7 +2293,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>27.99983231733555</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2302,10 +2302,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,16 +2473,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>90.9625465403556</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2527,10 +2527,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>211.459391016894</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2722,7 +2722,7 @@
         <v>78.30207251692853</v>
       </c>
       <c r="F28" t="n">
-        <v>77.28915789329028</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G28" t="n">
         <v>98.36167833373696</v>
@@ -2731,7 +2731,7 @@
         <v>80.78193823789549</v>
       </c>
       <c r="I28" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463099</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2956,7 +2956,7 @@
         <v>80.48358288857172</v>
       </c>
       <c r="E31" t="n">
-        <v>78.30207251692819</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F31" t="n">
         <v>77.28915789329061</v>
@@ -3016,7 +3016,7 @@
         <v>157.5777652593965</v>
       </c>
       <c r="Y31" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224538</v>
       </c>
     </row>
     <row r="32">
@@ -3199,7 +3199,7 @@
         <v>77.28915789329061</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H34" t="n">
         <v>80.78193823789549</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,22 +3424,22 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D37" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
         <v>42.28735533463133</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E40" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="44">
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692849</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1372.544999708784</v>
+        <v>1177.911859172214</v>
       </c>
       <c r="C2" t="n">
-        <v>1372.544999708784</v>
+        <v>1177.911859172214</v>
       </c>
       <c r="D2" t="n">
-        <v>1345.301239238533</v>
+        <v>1177.911859172214</v>
       </c>
       <c r="E2" t="n">
-        <v>959.5129866402885</v>
+        <v>792.1236065739693</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2659.253958929848</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2546.751456501164</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2328.116789473227</v>
       </c>
       <c r="U2" t="n">
-        <v>2247.308246834948</v>
+        <v>2328.116789473227</v>
       </c>
       <c r="V2" t="n">
-        <v>2149.284171748717</v>
+        <v>2328.116789473227</v>
       </c>
       <c r="W2" t="n">
-        <v>2149.284171748717</v>
+        <v>2328.116789473227</v>
       </c>
       <c r="X2" t="n">
-        <v>2149.284171748717</v>
+        <v>1954.651031212147</v>
       </c>
       <c r="Y2" t="n">
-        <v>1759.144839772905</v>
+        <v>1564.511699236335</v>
       </c>
     </row>
     <row r="3">
@@ -4401,7 +4401,7 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4425,7 +4425,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,13 +4462,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
         <v>53.94298182036445</v>
@@ -4510,28 +4510,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>429.8456263007749</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>429.8456263007749</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>429.8456263007749</v>
+        <v>525.0086166875648</v>
       </c>
       <c r="W4" t="n">
-        <v>429.8456263007749</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="X4" t="n">
-        <v>201.8560754027576</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="Y4" t="n">
-        <v>201.8560754027576</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1626.717708340416</v>
+        <v>1022.045772923999</v>
       </c>
       <c r="C5" t="n">
-        <v>1257.755191400004</v>
+        <v>1022.045772923999</v>
       </c>
       <c r="D5" t="n">
-        <v>899.4894927932537</v>
+        <v>1022.045772923999</v>
       </c>
       <c r="E5" t="n">
-        <v>806.0470106353782</v>
+        <v>636.257520325755</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861748</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4571,7 +4571,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>2366.086203674652</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W5" t="n">
-        <v>2013.317548404538</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="X5" t="n">
-        <v>2013.317548404538</v>
+        <v>1408.645612988121</v>
       </c>
       <c r="Y5" t="n">
-        <v>2013.317548404538</v>
+        <v>1408.645612988121</v>
       </c>
     </row>
     <row r="6">
@@ -4644,25 +4644,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,13 +4699,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E7" t="n">
         <v>53.94298182036445</v>
@@ -4753,22 +4753,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>500.820796875036</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W7" t="n">
-        <v>211.4036268380754</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="X7" t="n">
-        <v>211.4036268380754</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>383.5045402329973</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>601.1385180919704</v>
+        <v>1271.984870679801</v>
       </c>
       <c r="C8" t="n">
-        <v>601.1385180919704</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="D8" t="n">
-        <v>601.1385180919704</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E8" t="n">
-        <v>601.1385180919704</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F8" t="n">
-        <v>594.1930173427669</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4805,16 +4805,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2302.336936304455</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2048.575150942547</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V8" t="n">
-        <v>1717.512263598976</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W8" t="n">
-        <v>1364.743608328862</v>
+        <v>2035.589960916693</v>
       </c>
       <c r="X8" t="n">
-        <v>991.2778500677821</v>
+        <v>1662.124202655613</v>
       </c>
       <c r="Y8" t="n">
-        <v>601.1385180919704</v>
+        <v>1271.984870679801</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,13 +4936,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>500.820796875036</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>331.8846139471291</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>181.7679745347934</v>
       </c>
       <c r="E10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>336.2769833124031</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>336.2769833124031</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U10" t="n">
-        <v>53.94298182036445</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V10" t="n">
-        <v>53.94298182036445</v>
+        <v>500.820796875036</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036445</v>
+        <v>500.820796875036</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036445</v>
+        <v>500.820796875036</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>500.820796875036</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5024,31 +5024,31 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N11" t="n">
         <v>3183.709822619127</v>
@@ -5057,7 +5057,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5075,16 +5075,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5118,25 +5118,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>988.7065213774116</v>
+        <v>674.9567375132466</v>
       </c>
       <c r="C13" t="n">
-        <v>819.7703384495047</v>
+        <v>674.9567375132466</v>
       </c>
       <c r="D13" t="n">
-        <v>819.7703384495047</v>
+        <v>524.8400981009108</v>
       </c>
       <c r="E13" t="n">
-        <v>671.8572448671116</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705744</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H13" t="n">
         <v>208.7516828383384</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="V13" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="W13" t="n">
-        <v>1209.499100520942</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="X13" t="n">
-        <v>1209.499100520942</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="Y13" t="n">
-        <v>988.7065213774116</v>
+        <v>743.3431626812556</v>
       </c>
     </row>
     <row r="14">
@@ -5252,13 +5252,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
@@ -5270,16 +5270,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5297,16 +5297,16 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
         <v>4262.3578574653</v>
@@ -5321,7 +5321,7 @@
         <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5352,7 +5352,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
         <v>263.5382936126482</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>843.1711433963917</v>
+        <v>527.0436439308536</v>
       </c>
       <c r="C16" t="n">
-        <v>674.2349604684848</v>
+        <v>527.0436439308536</v>
       </c>
       <c r="D16" t="n">
-        <v>674.2349604684848</v>
+        <v>376.9270045185178</v>
       </c>
       <c r="E16" t="n">
-        <v>674.2349604684848</v>
+        <v>376.9270045185178</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705744</v>
+        <v>376.9270045185178</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H16" t="n">
         <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U16" t="n">
-        <v>1387.841167119728</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V16" t="n">
-        <v>1387.841167119728</v>
+        <v>929.4846879046235</v>
       </c>
       <c r="W16" t="n">
-        <v>1387.841167119728</v>
+        <v>929.4846879046235</v>
       </c>
       <c r="X16" t="n">
-        <v>1159.85161622171</v>
+        <v>929.4846879046235</v>
       </c>
       <c r="Y16" t="n">
-        <v>939.0590370781803</v>
+        <v>708.6921087610933</v>
       </c>
     </row>
     <row r="17">
@@ -5489,13 +5489,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
@@ -5504,19 +5504,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5531,13 +5531,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231264</v>
@@ -5546,19 +5546,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5589,28 +5589,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>549.5984374701561</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L18" t="n">
-        <v>891.4406401619858</v>
+        <v>953.6472828615139</v>
       </c>
       <c r="M18" t="n">
-        <v>1198.760773441947</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N18" t="n">
-        <v>1528.62340110598</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>395.2468244550147</v>
+        <v>475.7924673804756</v>
       </c>
       <c r="C19" t="n">
-        <v>395.2468244550147</v>
+        <v>475.7924673804756</v>
       </c>
       <c r="D19" t="n">
-        <v>245.130185042679</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5698,25 +5698,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1298.996260473455</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U19" t="n">
-        <v>1298.996260473455</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V19" t="n">
-        <v>1044.311772267568</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="W19" t="n">
-        <v>844.0289544965622</v>
+        <v>696.5850465240057</v>
       </c>
       <c r="X19" t="n">
-        <v>616.0394035985448</v>
+        <v>696.5850465240057</v>
       </c>
       <c r="Y19" t="n">
-        <v>395.2468244550147</v>
+        <v>475.7924673804756</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5735,25 +5735,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5768,34 +5768,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5826,28 +5826,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L21" t="n">
-        <v>901.674922584592</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.043068977053</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N21" t="n">
-        <v>2051.878056918008</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>2080.218333389736</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>544.6416868225887</v>
+        <v>826.1356072130309</v>
       </c>
       <c r="C22" t="n">
-        <v>544.6416868225887</v>
+        <v>657.199424285124</v>
       </c>
       <c r="D22" t="n">
-        <v>394.5250474102529</v>
+        <v>507.0827848727882</v>
       </c>
       <c r="E22" t="n">
-        <v>394.5250474102529</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F22" t="n">
-        <v>247.6350999123426</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G22" t="n">
-        <v>247.6350999123426</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5914,10 +5914,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5941,19 +5941,19 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>786.0822064765186</v>
+        <v>1046.928186356561</v>
       </c>
       <c r="V22" t="n">
-        <v>786.0822064765186</v>
+        <v>1046.928186356561</v>
       </c>
       <c r="W22" t="n">
-        <v>786.0822064765186</v>
+        <v>1046.928186356561</v>
       </c>
       <c r="X22" t="n">
-        <v>558.0926555785013</v>
+        <v>1046.928186356561</v>
       </c>
       <c r="Y22" t="n">
-        <v>558.0926555785013</v>
+        <v>826.1356072130309</v>
       </c>
     </row>
     <row r="23">
@@ -5966,31 +5966,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6008,10 +6008,10 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231264</v>
@@ -6020,16 +6020,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6042,16 +6042,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C24" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D24" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E24" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047446</v>
       </c>
       <c r="F24" t="n">
         <v>358.2718071316295</v>
@@ -6063,16 +6063,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M24" t="n">
         <v>1228.513823643586</v>
@@ -6102,7 +6102,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V24" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W24" t="n">
         <v>1571.258395043133</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>337.0115451844523</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C25" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D25" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6154,13 +6154,13 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P25" t="n">
         <v>1460.082827585746</v>
@@ -6172,25 +6172,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.21084526296</v>
+        <v>1085.400916011945</v>
       </c>
       <c r="U25" t="n">
-        <v>1075.21084526296</v>
+        <v>796.2722772255036</v>
       </c>
       <c r="V25" t="n">
-        <v>1075.21084526296</v>
+        <v>796.2722772255036</v>
       </c>
       <c r="W25" t="n">
-        <v>785.7936752259998</v>
+        <v>506.8551071885429</v>
       </c>
       <c r="X25" t="n">
-        <v>557.8041243279824</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y25" t="n">
-        <v>337.0115451844523</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6209,40 +6209,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
@@ -6260,16 +6260,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6321,10 +6321,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6370,13 +6370,13 @@
         <v>398.9545963083203</v>
       </c>
       <c r="F28" t="n">
-        <v>320.8847398504513</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G28" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103126</v>
       </c>
       <c r="H28" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982969</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028584</v>
@@ -6449,13 +6449,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
@@ -6540,25 +6540,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,13 +6595,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C31" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D31" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E31" t="n">
         <v>398.9545963083206</v>
@@ -6664,7 +6664,7 @@
         <v>924.2611010045205</v>
       </c>
       <c r="Y31" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6774,7 +6774,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108324</v>
       </c>
       <c r="C34" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229665</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506716</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083199</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504508</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103124</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
@@ -6856,13 +6856,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525401</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6877,10 +6877,10 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S34" t="n">
         <v>1865.165908942116</v>
@@ -6895,13 +6895,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045201</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010315</v>
+        <v>772.288612901031</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7011,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,43 +7069,43 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108338</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229679</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506732</v>
+        <v>478.0475988506721</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083209</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504516</v>
+        <v>320.8847398504508</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103133</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525394</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254951</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649686</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N37" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116387</v>
       </c>
       <c r="O37" t="n">
         <v>1688.186490350129</v>
@@ -7120,25 +7120,25 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T37" t="n">
-        <v>1710.200584771664</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
-        <v>1083.430560862498</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045214</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010324</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7151,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
         <v>1701.09316900344</v>
@@ -7160,13 +7160,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
@@ -7175,16 +7175,16 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7199,22 +7199,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7269,10 +7269,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7312,22 +7312,22 @@
         <v>559.3441472229672</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506725</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083205</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>177.05035515254</v>
@@ -7336,7 +7336,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649693</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7354,7 +7354,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
         <v>1865.165908942116</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="41">
@@ -7388,28 +7388,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155879</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514085</v>
@@ -7436,22 +7436,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7497,7 +7497,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
         <v>1558.376451307619</v>
@@ -7543,46 +7543,46 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108334</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229675</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506729</v>
       </c>
       <c r="E43" t="n">
         <v>398.9545963083206</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G43" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649694</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M43" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N43" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O43" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P43" t="n">
         <v>1932.236826184157</v>
@@ -7609,10 +7609,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045209</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010318</v>
+        <v>772.288612901032</v>
       </c>
     </row>
     <row r="44">
@@ -7625,52 +7625,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7679,16 +7679,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7722,7 +7722,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
@@ -7743,10 +7743,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108335</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229676</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D46" t="n">
-        <v>478.047598850673</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E46" t="n">
-        <v>398.954596308321</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504518</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649691</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7837,19 +7837,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045212</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010321</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
   </sheetData>
@@ -8073,10 +8073,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,13 +8292,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>327.421860962789</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8544,13 +8544,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>350.4438349360591</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,28 +8766,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>423.3376789165117</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445218</v>
@@ -8948,7 +8948,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,16 +9240,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>96.03744927814716</v>
+        <v>297.2466435761028</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9258,10 +9258,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445218</v>
@@ -9480,28 +9480,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>52.4973336130526</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>43.65987261462459</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298389</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776759</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,28 +10188,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445217</v>
@@ -10355,7 +10355,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10662,31 +10662,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11066,7 +11066,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11154,7 +11154,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208064</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22550,7 +22550,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>327.7117187551345</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -22559,13 +22559,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22592,7 +22592,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>16.96222180732056</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -22717,7 +22717,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -22747,7 +22747,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -22756,16 +22756,16 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>76.39977311163943</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -23413,25 +23413,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>112.1294192656083</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>2.353938445359461</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -23476,7 +23476,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23650,25 +23650,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>84.90296543696662</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,25 +23698,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>172.5585388792625</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23893,10 +23893,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>33.15892468903267</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23905,10 +23905,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,22 +23938,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>88.24300874329555</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,19 +24124,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>166.5155211135838</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>258.2375200812418</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24190,10 +24190,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,16 +24361,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>76.28427455827223</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24415,10 +24415,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>10.08817004149529</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1311782.711030734</v>
+        <v>1311782.711030735</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1311782.711030735</v>
+        <v>1311782.711030734</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1311782.711030734</v>
+        <v>1311782.711030735</v>
       </c>
     </row>
     <row r="8">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>77466.06243016747</v>
+        <v>77466.06243016743</v>
       </c>
       <c r="C2" t="n">
         <v>82104.17698642831</v>
@@ -26320,40 +26320,40 @@
         <v>82104.17698642831</v>
       </c>
       <c r="E2" t="n">
+        <v>78205.8119475417</v>
+      </c>
+      <c r="F2" t="n">
+        <v>78205.81194754173</v>
+      </c>
+      <c r="G2" t="n">
+        <v>78205.81194754178</v>
+      </c>
+      <c r="H2" t="n">
         <v>78205.81194754176</v>
       </c>
-      <c r="F2" t="n">
-        <v>78205.81194754175</v>
-      </c>
-      <c r="G2" t="n">
-        <v>78205.81194754173</v>
-      </c>
-      <c r="H2" t="n">
-        <v>78205.81194754179</v>
-      </c>
       <c r="I2" t="n">
-        <v>78205.81194754175</v>
+        <v>78205.81194754172</v>
       </c>
       <c r="J2" t="n">
-        <v>82104.17698642831</v>
+        <v>82104.17698642846</v>
       </c>
       <c r="K2" t="n">
         <v>82104.17698642849</v>
       </c>
       <c r="L2" t="n">
-        <v>82104.17698642837</v>
+        <v>82104.17698642834</v>
       </c>
       <c r="M2" t="n">
-        <v>82104.17698642837</v>
+        <v>82104.1769864284</v>
       </c>
       <c r="N2" t="n">
-        <v>82104.17698642837</v>
+        <v>82104.1769864283</v>
       </c>
       <c r="O2" t="n">
-        <v>82104.17698642841</v>
+        <v>82104.17698642839</v>
       </c>
       <c r="P2" t="n">
-        <v>82104.17698642837</v>
+        <v>82104.1769864284</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>230928.7312963055</v>
+        <v>230928.7312963054</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>54505.51210371248</v>
+        <v>54505.51210371252</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>139160.036972252</v>
+        <v>139160.0369722519</v>
       </c>
       <c r="C4" t="n">
         <v>165632.8677865244</v>
@@ -26427,22 +26427,22 @@
         <v>22174.60758687071</v>
       </c>
       <c r="F4" t="n">
-        <v>22174.60758687079</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="G4" t="n">
-        <v>22174.60758687073</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="H4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687069</v>
       </c>
       <c r="I4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="J4" t="n">
-        <v>44593.3948281912</v>
+        <v>44593.39482819119</v>
       </c>
       <c r="K4" t="n">
-        <v>44593.39482819118</v>
+        <v>44593.39482819119</v>
       </c>
       <c r="L4" t="n">
         <v>44593.39482819119</v>
@@ -26451,7 +26451,7 @@
         <v>44593.39482819119</v>
       </c>
       <c r="N4" t="n">
-        <v>44593.39482819119</v>
+        <v>44593.3948281912</v>
       </c>
       <c r="O4" t="n">
         <v>44593.39482819119</v>
@@ -26479,16 +26479,16 @@
         <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
         <v>97715.10582002539</v>
@@ -26497,10 +26497,10 @@
         <v>97715.10582002539</v>
       </c>
       <c r="L5" t="n">
+        <v>97715.1058200254</v>
+      </c>
+      <c r="M5" t="n">
         <v>97715.10582002539</v>
-      </c>
-      <c r="M5" t="n">
-        <v>97715.1058200254</v>
       </c>
       <c r="N5" t="n">
         <v>97715.10582002539</v>
@@ -26509,7 +26509,7 @@
         <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
     </row>
     <row r="6">
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-734520.9318200384</v>
+        <v>-734636.8846839449</v>
       </c>
       <c r="C6" t="n">
         <v>-166387.7688635056</v>
@@ -26528,40 +26528,40 @@
         <v>-166387.7688635056</v>
       </c>
       <c r="E6" t="n">
-        <v>-561116.1580649416</v>
+        <v>-561213.6171909139</v>
       </c>
       <c r="F6" t="n">
-        <v>-35956.12158804567</v>
+        <v>-36053.58071401776</v>
       </c>
       <c r="G6" t="n">
-        <v>-35956.12158804561</v>
+        <v>-36053.58071401774</v>
       </c>
       <c r="H6" t="n">
-        <v>-35956.12158804554</v>
+        <v>-36053.58071401773</v>
       </c>
       <c r="I6" t="n">
-        <v>-35956.12158804559</v>
+        <v>-36053.5807140178</v>
       </c>
       <c r="J6" t="n">
-        <v>-291133.0549580937</v>
+        <v>-291133.0549580935</v>
       </c>
       <c r="K6" t="n">
-        <v>-60204.32366178808</v>
+        <v>-60204.32366178809</v>
       </c>
       <c r="L6" t="n">
+        <v>-60204.32366178825</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-195005.3388956253</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-60204.32366178829</v>
+      </c>
+      <c r="O6" t="n">
+        <v>-114709.8357655007</v>
+      </c>
+      <c r="P6" t="n">
         <v>-60204.32366178821</v>
-      </c>
-      <c r="M6" t="n">
-        <v>-195005.3388956254</v>
-      </c>
-      <c r="N6" t="n">
-        <v>-60204.32366178821</v>
-      </c>
-      <c r="O6" t="n">
-        <v>-114709.8357655006</v>
-      </c>
-      <c r="P6" t="n">
-        <v>-60204.32366178822</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26716,16 @@
         <v>68.13189012964064</v>
       </c>
       <c r="M2" t="n">
+        <v>68.13189012964067</v>
+      </c>
+      <c r="N2" t="n">
         <v>68.13189012964065</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>68.13189012964067</v>
       </c>
-      <c r="O2" t="n">
-        <v>68.13189012964064</v>
-      </c>
       <c r="P2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
@@ -26753,10 +26753,10 @@
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541003</v>
@@ -26768,13 +26768,13 @@
         <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26938,13 +26938,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,13 +27382,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>63.03823540457505</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27436,13 +27436,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>230.7084241347659</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27543,13 +27543,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27579,28 +27579,28 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>51.04847948014728</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27616,22 +27616,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>289.4223127359651</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>244.1688226421699</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27661,10 +27661,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27679,7 +27679,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27780,7 +27780,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27825,22 +27825,22 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>62.69861478456102</v>
+        <v>129.5440971422202</v>
       </c>
     </row>
     <row r="8">
@@ -27853,25 +27853,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>334.7546791833545</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>354.790723862835</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,19 +27898,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28011,13 +28011,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>19.88721985928457</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,19 +28053,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>6.771212764859513</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28393,7 +28393,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>1.800799509510398e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -29323,7 +29323,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="38">
@@ -30241,7 +30241,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
   </sheetData>
@@ -31276,13 +31276,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31300,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31388,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31458,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31473,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32558,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32707,40 +32707,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M23" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32780,10 +32780,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215733</v>
@@ -32792,7 +32792,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M24" t="n">
         <v>452.5584109724845</v>
@@ -32801,10 +32801,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q24" t="n">
         <v>227.9948068710956</v>
@@ -32816,7 +32816,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32880,7 +32880,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P25" t="n">
         <v>181.1050413469073</v>
@@ -32892,10 +32892,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U25" t="n">
         <v>0.08167695791351813</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34793,10 +34793,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34948,10 +34948,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,13 +35012,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>365.2844632307155</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
@@ -35027,13 +35027,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>401.1632560839194</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,16 +35960,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>345.2951542341714</v>
+        <v>546.5043485321271</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N18" t="n">
         <v>333.1945733980128</v>
@@ -35978,10 +35978,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>385.6919070110654</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315246</v>
+        <v>250.7532875461493</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M23" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,19 +36440,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O24" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299105</v>
@@ -36522,7 +36522,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N25" t="n">
         <v>273.2768778056036</v>
@@ -36534,7 +36534,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36689,13 +36689,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36838,7 +36838,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37075,7 +37075,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37476,7 +37476,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
         <v>246.5154907414414</v>
@@ -37549,7 +37549,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37637,13 +37637,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37716,7 +37716,7 @@
         <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37780,7 +37780,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37865,22 +37865,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523311</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38111,13 +38111,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
